--- a/communication/Message protocol.xlsx
+++ b/communication/Message protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Messages</t>
   </si>
@@ -132,9 +132,6 @@
     <t>0x81</t>
   </si>
   <si>
-    <t>0x82</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
@@ -150,15 +147,9 @@
     <t>int 9</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
-    <t>Mode-num</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -166,6 +157,9 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>mode</t>
   </si>
 </sst>
 </file>
@@ -263,8 +257,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -277,9 +275,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -750,14 +752,12 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
@@ -769,9 +769,6 @@
       <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
@@ -780,13 +777,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -796,8 +790,8 @@
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>47</v>
+      <c r="C20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -807,8 +801,8 @@
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>48</v>
+      <c r="C21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -816,14 +810,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -845,13 +841,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3"/>
     </row>
